--- a/data/trans_orig/Q57-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Clase-trans_orig.xlsx
@@ -639,27 +639,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 8,06</t>
+          <t>7,76; 8,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,27</t>
+          <t>7,97; 8,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,05</t>
+          <t>7,75; 8,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,41</t>
+          <t>8,17; 8,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,01</t>
+          <t>7,81; 8,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 8,43</t>
+          <t>8,13; 8,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 7,87</t>
+          <t>7,59; 7,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 8,25</t>
+          <t>8,01; 8,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 8,31</t>
+          <t>8,12; 8,31</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,68</t>
+          <t>7,4; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,46</t>
+          <t>6,82; 7,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 8,02</t>
+          <t>7,59; 8,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,58</t>
+          <t>7,29; 7,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 8,7</t>
+          <t>8,0; 8,7</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,18</t>
+          <t>7,95; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,12</t>
+          <t>7,45; 8,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,69</t>
+          <t>7,55; 7,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 8,09</t>
+          <t>7,66; 8,1</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,47</t>
+          <t>7,19; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 8,05</t>
+          <t>7,71; 8,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,24</t>
+          <t>6,97; 7,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,68</t>
+          <t>7,4; 7,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,31</t>
+          <t>7,11; 7,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,76</t>
+          <t>7,54; 7,76</t>
         </is>
       </c>
     </row>
@@ -1039,17 +1039,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 8,48</t>
+          <t>8,2; 8,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 8,96</t>
+          <t>8,53; 8,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,49</t>
+          <t>7,27; 7,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,68</t>
+          <t>7,49; 7,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,74</t>
+          <t>7,64; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,39; 7,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 7,92</t>
+          <t>7,68; 7,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 8,12</t>
+          <t>7,93; 8,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q57-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Clase-trans_orig.xlsx
@@ -991,7 +991,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
